--- a/Masters/User/UserLevelMaster/ClassSchema.xlsx
+++ b/Masters/User/UserLevelMaster/ClassSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Aries-Master\Masters\User\UserLevelMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A42266-0699-46AD-8DA4-B66B4A864A68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35EF99C-8E87-44B4-AD24-4CD5F2AA5B5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9360" xr2:uid="{D010554B-594E-4258-A22D-8907CA064929}"/>
   </bookViews>
@@ -73,7 +73,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int?</t>
+    <t>uint[]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -507,7 +507,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
